--- a/mean_results/avg_ensemble_val_results_80_20.xlsx
+++ b/mean_results/avg_ensemble_val_results_80_20.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>BaggingClassifier_SVC</t>
+          <t>BaggingClassifierLogisticRegression</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5334188034188034</v>
+        <v>0.4209401709401709</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5599999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="E2" t="n">
-        <v>0.543199500728105</v>
+        <v>0.4850367024280068</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
@@ -518,13 +518,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6715584415584416</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.6142857142857142</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6544024251610459</v>
+        <v>0.6218299595141701</v>
       </c>
       <c r="F3" t="n">
         <v>14</v>
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6024886224886226</v>
+        <v>0.555924630924631</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6014285714285714</v>
+        <v>0.5971428571428572</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5988009629445754</v>
+        <v>0.5534333309710884</v>
       </c>
       <c r="F5" t="n">
         <v>24</v>
@@ -578,13 +578,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.614000259000259</v>
+        <v>0.578422040922041</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6083333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6080678733139872</v>
+        <v>0.5648327690616021</v>
       </c>
       <c r="F6" t="n">
         <v>24</v>
@@ -593,7 +593,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>BaggingClassifier_RandomForestClassifier</t>
+          <t>BaggingClassifierElasticNet</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.5032867132867133</v>
+        <v>0.4787012987012987</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5295755693581781</v>
+        <v>0.5390909090909091</v>
       </c>
       <c r="F7" t="n">
         <v>10</v>
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6736208236208236</v>
+        <v>0.7014652014652014</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5571428571428572</v>
+        <v>0.5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5816481481481481</v>
+        <v>0.5577330077330076</v>
       </c>
       <c r="F8" t="n">
         <v>14</v>
@@ -642,16 +642,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.575</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="D9" t="n">
-        <v>0.575</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="E9" t="n">
-        <v>0.575</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="F9" t="n">
-        <v>0.575</v>
+        <v>0.5583333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -662,13 +662,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5884537684537684</v>
+        <v>0.59008325008325</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5785714285714285</v>
+        <v>0.57</v>
       </c>
       <c r="E10" t="n">
-        <v>0.555611858753163</v>
+        <v>0.5484119584119584</v>
       </c>
       <c r="F10" t="n">
         <v>24</v>
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6026482776482777</v>
+        <v>0.6086469086469087</v>
       </c>
       <c r="D11" t="n">
-        <v>0.575</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5599512403189939</v>
+        <v>0.5499654666321334</v>
       </c>
       <c r="F11" t="n">
         <v>24</v>
@@ -697,7 +697,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AdaBoostClassifier_ElasticNet</t>
+          <t>AdaBoostClassifierLogisticRegression</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -706,13 +706,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.4466533466533466</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="D12" t="n">
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4592741444403848</v>
+        <v>0.3147869674185464</v>
       </c>
       <c r="F12" t="n">
         <v>10</v>
@@ -726,13 +726,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.6260621731209967</v>
+        <v>0.6044455544455545</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6</v>
+        <v>0.7571428571428571</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6097374978665302</v>
+        <v>0.6620190322549669</v>
       </c>
       <c r="F13" t="n">
         <v>14</v>
@@ -746,16 +746,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.55</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="D14" t="n">
-        <v>0.55</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="E14" t="n">
-        <v>0.55</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="F14" t="n">
-        <v>0.55</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="15">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5363577598871716</v>
+        <v>0.4941419691419691</v>
       </c>
       <c r="D15" t="n">
-        <v>0.54</v>
+        <v>0.5285714285714287</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5345058211534575</v>
+        <v>0.4884029998367566</v>
       </c>
       <c r="F15" t="n">
         <v>24</v>
@@ -786,13 +786,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.5513084954261425</v>
+        <v>0.5125259000259</v>
       </c>
       <c r="D16" t="n">
-        <v>0.55</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5470444339389696</v>
+        <v>0.5173390052397917</v>
       </c>
       <c r="F16" t="n">
         <v>24</v>
@@ -801,7 +801,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>BaggingClassifier_LGBMClassifier</t>
+          <t>AdaBoostClassifierElasticNet</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.4596536796536796</v>
+        <v>0.4174159174159174</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.474949494949495</v>
+        <v>0.4722676255857034</v>
       </c>
       <c r="F17" t="n">
         <v>10</v>
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.6131318681318682</v>
+        <v>0.6282983682983683</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4714285714285714</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5880748880748881</v>
+        <v>0.5260485312899106</v>
       </c>
       <c r="F18" t="n">
         <v>14</v>
@@ -850,16 +850,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.5416666666666667</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5416666666666667</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5416666666666667</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5416666666666667</v>
+        <v>0.5083333333333333</v>
       </c>
     </row>
     <row r="20">
@@ -870,13 +870,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.5363927738927738</v>
+        <v>0.5228571428571429</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.5157142857142857</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5315121915121915</v>
+        <v>0.499158078437807</v>
       </c>
       <c r="F20" t="n">
         <v>24</v>
@@ -890,13 +890,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.549182622932623</v>
+        <v>0.5404306804306804</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5416666666666667</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5409393076059743</v>
+        <v>0.5036398205798243</v>
       </c>
       <c r="F21" t="n">
         <v>24</v>
@@ -905,7 +905,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>BaggingClassifier_ElasticNet</t>
+          <t>BaggingClassifierDecisionTreeClassifier</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.4447125097125097</v>
+        <v>0.3853535353535353</v>
       </c>
       <c r="D22" t="n">
-        <v>0.52</v>
+        <v>0.36</v>
       </c>
       <c r="E22" t="n">
-        <v>0.474548075875307</v>
+        <v>0.3555973266499582</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.6018648018648018</v>
+        <v>0.5764102564102564</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5285714285714286</v>
+        <v>0.6</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5571768257285499</v>
+        <v>0.5795800465780182</v>
       </c>
       <c r="F23" t="n">
         <v>14</v>
@@ -954,16 +954,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="D24" t="n">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="F24" t="n">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.5232886557886558</v>
+        <v>0.4808818958818959</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5242857142857142</v>
+        <v>0.48</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5158624508019284</v>
+        <v>0.4675886866139882</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
@@ -994,13 +994,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.5363846801346801</v>
+        <v>0.4968032893032893</v>
       </c>
       <c r="D26" t="n">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5227481799563654</v>
+        <v>0.4862539132746599</v>
       </c>
       <c r="F26" t="n">
         <v>24</v>
@@ -1009,7 +1009,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>BaggingClassifier_DecisionTreeClassifier</t>
+          <t>BaggingClassifierSVC</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.3975757575757576</v>
+        <v>0.3706060606060606</v>
       </c>
       <c r="D27" t="n">
-        <v>0.38</v>
+        <v>0.4400000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3872848788638262</v>
+        <v>0.3994003189792664</v>
       </c>
       <c r="F27" t="n">
         <v>10</v>
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.5690293040293041</v>
+        <v>0.5566666666666666</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5857142857142856</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="E28" t="n">
-        <v>0.576482393723773</v>
+        <v>0.5149775539580637</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
@@ -1058,16 +1058,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.5</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5</v>
+        <v>0.4666666666666666</v>
       </c>
     </row>
     <row r="30">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.4833025308025308</v>
+        <v>0.4636363636363636</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4828571428571428</v>
+        <v>0.4628571428571428</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4818836362937996</v>
+        <v>0.457188936468665</v>
       </c>
       <c r="F30" t="n">
         <v>24</v>
@@ -1098,13 +1098,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4975903263403263</v>
+        <v>0.4791414141414141</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4976500958654618</v>
+        <v>0.4668203727168981</v>
       </c>
       <c r="F31" t="n">
         <v>24</v>
@@ -1113,7 +1113,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AdaBoostClassifier_SVC</t>
+          <t>AdaBoostClassifierSVC</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1214,14 +1214,119 @@
         <v>24</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>AdaBoostClassifierDecisionTreeClassifier</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>Did not Play: 0</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.3548539695598519</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.398280946107033</v>
+      </c>
+      <c r="F37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>Played in the NHL: 1</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.500982350982351</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.4408465608465608</v>
+      </c>
+      <c r="F38" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.4279181602711014</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.419563753476797</v>
+      </c>
+      <c r="F40" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.440095525389643</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.4231108880384243</v>
+      </c>
+      <c r="F41" t="n">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A37:A41"/>
     <mergeCell ref="A32:A36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
